--- a/Copy of Mentimun Dataset MBMD.xlsx
+++ b/Copy of Mentimun Dataset MBMD.xlsx
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Tabel MB</t>
+  </si>
+  <si>
+    <t>Tabel MD</t>
   </si>
 </sst>
 </file>
@@ -1317,9 +1320,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,6 +1328,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3439,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,7 +3464,9 @@
     <col min="15" max="15" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.140625" customWidth="1"/>
     <col min="17" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,23 +3722,23 @@
       <c r="L10" s="84"/>
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -3892,23 +3897,23 @@
       <c r="P13" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="100">
+      <c r="Q13" s="104">
         <f>MAX(J13,0.05)-0.05/1-0.05</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="R13" s="100">
+      <c r="R13" s="104">
         <f>MAX(K13,0.05)-0.05/1-0.05</f>
         <v>0.4</v>
       </c>
-      <c r="S13" s="100">
+      <c r="S13" s="104">
         <f t="shared" ref="S13:U13" si="0">MAX(L13,0.05)-0.05/1-0.05</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T13" s="100">
+      <c r="T13" s="104">
         <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="U13" s="100">
+      <c r="U13" s="104">
         <f t="shared" si="0"/>
         <v>-0.05</v>
       </c>
@@ -3916,23 +3921,23 @@
       <c r="W13" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="100">
+      <c r="X13" s="104">
         <f>(MIN(J13,0.03)-0.03)/(-0.03)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="100">
+      <c r="Y13" s="104">
         <f t="shared" ref="Y13:AB25" si="1">(MIN(K13,0.03)-0.03)/(-0.03)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="100">
+      <c r="Z13" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3974,23 +3979,23 @@
       <c r="P14" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="100">
+      <c r="Q14" s="104">
         <f t="shared" ref="Q14:Q25" si="2">MAX(J14,0.05)-0.05/1-0.05</f>
         <v>0.4</v>
       </c>
-      <c r="R14" s="100">
+      <c r="R14" s="104">
         <f t="shared" ref="R14:R25" si="3">MAX(K14,0.05)-0.05/1-0.05</f>
         <v>-0.05</v>
       </c>
-      <c r="S14" s="100">
+      <c r="S14" s="104">
         <f t="shared" ref="S14:S25" si="4">MAX(L14,0.05)-0.05/1-0.05</f>
         <v>-0.05</v>
       </c>
-      <c r="T14" s="100">
+      <c r="T14" s="104">
         <f t="shared" ref="T14:T25" si="5">MAX(M14,0.05)-0.05/1-0.05</f>
         <v>-0.05</v>
       </c>
-      <c r="U14" s="100">
+      <c r="U14" s="104">
         <f t="shared" ref="U14:U25" si="6">MAX(N14,0.05)-0.05/1-0.05</f>
         <v>-0.05</v>
       </c>
@@ -3998,23 +4003,23 @@
       <c r="W14" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="100">
+      <c r="X14" s="104">
         <f t="shared" ref="X14:X25" si="7">(MIN(J14,0.03)-0.03)/(-0.03)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="100">
+      <c r="Y14" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4056,23 +4061,23 @@
       <c r="P15" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="100">
+      <c r="Q15" s="104">
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="R15" s="100">
+      <c r="R15" s="104">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="S15" s="100">
+      <c r="S15" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T15" s="100">
+      <c r="T15" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U15" s="100">
+      <c r="U15" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4080,23 +4085,23 @@
       <c r="W15" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="100">
+      <c r="X15" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="100">
+      <c r="Y15" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4138,23 +4143,23 @@
       <c r="P16" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="100">
+      <c r="Q16" s="104">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="R16" s="100">
+      <c r="R16" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S16" s="100">
+      <c r="S16" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T16" s="100">
+      <c r="T16" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U16" s="100">
+      <c r="U16" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4162,23 +4167,23 @@
       <c r="W16" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="X16" s="100">
+      <c r="X16" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z16" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="100">
+      <c r="Y16" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4223,23 +4228,23 @@
       <c r="P17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="104">
+      <c r="Q17" s="103">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R17" s="100">
+      <c r="R17" s="104">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="S17" s="100">
+      <c r="S17" s="104">
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T17" s="100">
+      <c r="T17" s="104">
         <f t="shared" si="5"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="U17" s="100">
+      <c r="U17" s="104">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
@@ -4247,23 +4252,23 @@
       <c r="W17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="100">
+      <c r="X17" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="100">
+      <c r="Y17" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4305,23 +4310,23 @@
       <c r="P18" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="Q18" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R18" s="100">
+      <c r="R18" s="104">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="S18" s="100">
+      <c r="S18" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T18" s="100">
+      <c r="T18" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U18" s="100">
+      <c r="U18" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4329,23 +4334,23 @@
       <c r="W18" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="X18" s="100">
+      <c r="X18" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA18" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB18" s="100">
+      <c r="Y18" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB18" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4387,23 +4392,23 @@
       <c r="P19" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="100">
+      <c r="Q19" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R19" s="100">
+      <c r="R19" s="104">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="S19" s="100">
+      <c r="S19" s="104">
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T19" s="100">
+      <c r="T19" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U19" s="100">
+      <c r="U19" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4411,23 +4416,23 @@
       <c r="W19" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="100">
+      <c r="X19" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB19" s="100">
+      <c r="Y19" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4470,23 +4475,23 @@
       <c r="P20" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="100">
+      <c r="Q20" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R20" s="100">
+      <c r="R20" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S20" s="100">
+      <c r="S20" s="104">
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T20" s="100">
+      <c r="T20" s="104">
         <f t="shared" si="5"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="U20" s="100">
+      <c r="U20" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4494,23 +4499,23 @@
       <c r="W20" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="100">
+      <c r="X20" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="100">
+      <c r="Y20" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4553,23 +4558,23 @@
       <c r="P21" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="100">
+      <c r="Q21" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R21" s="100">
+      <c r="R21" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S21" s="100">
+      <c r="S21" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T21" s="100">
+      <c r="T21" s="104">
         <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="U21" s="100">
+      <c r="U21" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4577,23 +4582,23 @@
       <c r="W21" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="100">
+      <c r="X21" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z21" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="100">
+      <c r="Y21" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4636,23 +4641,23 @@
       <c r="P22" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="100">
+      <c r="Q22" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R22" s="100">
+      <c r="R22" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S22" s="100">
+      <c r="S22" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T22" s="100">
+      <c r="T22" s="104">
         <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="U22" s="100">
+      <c r="U22" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4660,23 +4665,23 @@
       <c r="W22" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="X22" s="100">
+      <c r="X22" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y22" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="100">
+      <c r="Y22" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4719,23 +4724,23 @@
       <c r="P23" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="100">
+      <c r="Q23" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R23" s="100">
+      <c r="R23" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S23" s="100">
+      <c r="S23" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T23" s="100">
+      <c r="T23" s="104">
         <f t="shared" si="5"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="U23" s="100">
+      <c r="U23" s="104">
         <f t="shared" si="6"/>
         <v>-0.05</v>
       </c>
@@ -4743,23 +4748,23 @@
       <c r="W23" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="X23" s="100">
+      <c r="X23" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA23" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="100">
+      <c r="Y23" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4802,23 +4807,23 @@
       <c r="P24" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="100">
+      <c r="Q24" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R24" s="100">
+      <c r="R24" s="104">
         <f t="shared" si="3"/>
         <v>-0.05</v>
       </c>
-      <c r="S24" s="100">
+      <c r="S24" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T24" s="100">
+      <c r="T24" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U24" s="100">
+      <c r="U24" s="104">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
@@ -4826,23 +4831,23 @@
       <c r="W24" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="100">
+      <c r="X24" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA24" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="100">
+      <c r="Y24" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4880,23 +4885,23 @@
       <c r="P25" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="100">
+      <c r="Q25" s="104">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
-      <c r="R25" s="100">
+      <c r="R25" s="104">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="S25" s="100">
+      <c r="S25" s="104">
         <f t="shared" si="4"/>
         <v>-0.05</v>
       </c>
-      <c r="T25" s="100">
+      <c r="T25" s="104">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="U25" s="100">
+      <c r="U25" s="104">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
@@ -4904,23 +4909,23 @@
       <c r="W25" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="100">
+      <c r="X25" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB25" s="100">
+      <c r="Y25" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
